--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>날짜</t>
+          <t>Date</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -467,6 +467,71 @@
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>MEMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>사랑해</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>ㄹㅇ.2</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ㄹㅇ</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ㄹㅇ.5</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ㄴㅁ.2</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>ㄹㅇ.3</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>ㄹㅇ.6</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>ㄴㅁ.3</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ㄴㅁ.1</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>ㄹㅇ.4</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>ㄹㅇ.1</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>ㄴㅁ</t>
         </is>
       </c>
     </row>
@@ -508,6 +573,19 @@
  ATT: 8:30출근, LATE: 지각, WO:work out, CV: company vacation</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -542,9 +620,23 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>금일 오후 4시반 즈음 배터리팩 화재 발생.\n사무실내부. 초기진화 성공</t>
-        </is>
-      </c>
+          <t>금일 오후 4시반 즈음 배터리팩 화재 발생.
+사무실내부. 초기진화 성공</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -578,6 +670,19 @@
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -611,6 +716,19 @@
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -640,10 +758,23 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>PV</t>
+          <t>PEL</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -653,7 +784,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CV</t>
+          <t>PEL</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -678,9 +809,22 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>KITAS 연장으로 IMMIGRATION OFFICE 다녀옴. EGA RETURN BACK"</t>
-        </is>
-      </c>
+          <t>KITAS 연장으로 IMMIGRATION OFFICE 다녀옴. EGA RETURN BACK</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -714,6 +858,19 @@
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -747,6 +904,19 @@
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -780,6 +950,19 @@
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -813,6 +996,19 @@
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -850,6 +1046,19 @@
           <t>Monday...</t>
         </is>
       </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -883,6 +1092,19 @@
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -916,6 +1138,19 @@
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -940,7 +1175,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>PV</t>
+          <t>SIL</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -949,6 +1184,19 @@
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -982,6 +1230,19 @@
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -996,7 +1257,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>PV</t>
+          <t>SIL</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1015,6 +1276,19 @@
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1048,6 +1322,19 @@
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1085,6 +1372,19 @@
           <t>Wednesday...</t>
         </is>
       </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1119,9 +1419,22 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>ㅠㅠ  설사에 몸살 기운까지..</t>
-        </is>
-      </c>
+          <t>ㅠㅠ 설사에 몸살 기운까지..</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1131,30 +1444,559 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>LATE(9:05)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>LATE(8:35)</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>PEL</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>LATE(8:36)</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>ATT(8:10)</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-10</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>LATE(8:38)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>LATE(8:50)</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>LATE(8:37)</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>LATE(8:35)</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>ATT(8:12)</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-11</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>LATE(9:01)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>WO</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>LATE(8:36)</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>LATE(8:33)</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>ATT(8:15)</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>빼빼로 day...</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>WO</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>LATE(8:40)</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>WO</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>WO</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>ATT(08:10)</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>LATE(8:40)</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>ATT(8:15)</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>수요일...</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>LATE(8:33)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>ATT(8:27)</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>LATE(8:36)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>LATE(8:33)</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>ATT(8:15)</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>LATE(8:53)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>LATE(8:40)</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>LATE(8:38)</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>LATE(8:36)</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>ATT(8:15)</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-17</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>PEL</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>ATT(8:24)</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>LATE(8:34)</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>LATE(8:39)</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>ATT(8:15)</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>MONDAY...</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-18</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>PEL</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>ATT(8:24)</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>LATE(8:32)</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>LATE(8:48)</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>ATT(8:05)</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-19</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>PEL</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>LATE(8:37)</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>ATT(8:29)</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>LATE(8:52)</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>ATT(8:10)</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>싫어욧~~ 진짜?</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>PEL</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>LATE(8:35)</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>LATE(8:35)</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>LATE(8:35)</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>LATE(9:00)</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>LATE(8:35)</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>LATE(8:35)</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>LATE(9:00)</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>LATE(9:00)</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>LATE(8:35)</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>LATE(8:35)</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>ATT(8:21)</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>LATE(9:00)</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-20</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>PEL</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>LATE(8:39)</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>LATE(8:36)</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>LATE(8:36)</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>ATT(8:10)</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>PEL</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>ATT(8:10)</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
